--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Col4a6</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col4a6</t>
-  </si>
-  <si>
-    <t>Cd93</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2222903333333333</v>
+        <v>0.1843346666666667</v>
       </c>
       <c r="H2">
-        <v>0.666871</v>
+        <v>0.5530040000000001</v>
       </c>
       <c r="I2">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609467</v>
       </c>
       <c r="J2">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609468</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N2">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q2">
-        <v>51.03444852491022</v>
+        <v>38.94485833664577</v>
       </c>
       <c r="R2">
-        <v>459.310036724192</v>
+        <v>350.503725029812</v>
       </c>
       <c r="S2">
-        <v>0.1445527197911158</v>
+        <v>0.15281222336234</v>
       </c>
       <c r="T2">
-        <v>0.1445527197911158</v>
+        <v>0.15281222336234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2222903333333333</v>
+        <v>0.1843346666666667</v>
       </c>
       <c r="H3">
-        <v>0.666871</v>
+        <v>0.5530040000000001</v>
       </c>
       <c r="I3">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609467</v>
       </c>
       <c r="J3">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609468</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N3">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q3">
-        <v>30.17109342147655</v>
+        <v>10.943350809672</v>
       </c>
       <c r="R3">
-        <v>271.5398407932889</v>
+        <v>98.49015728704802</v>
       </c>
       <c r="S3">
-        <v>0.08545822947449883</v>
+        <v>0.04293962899555564</v>
       </c>
       <c r="T3">
-        <v>0.08545822947449883</v>
+        <v>0.04293962899555565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2222903333333333</v>
+        <v>0.1843346666666667</v>
       </c>
       <c r="H4">
-        <v>0.666871</v>
+        <v>0.5530040000000001</v>
       </c>
       <c r="I4">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609467</v>
       </c>
       <c r="J4">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609468</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N4">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q4">
-        <v>0.1327551214216666</v>
+        <v>0.08468051940177777</v>
       </c>
       <c r="R4">
-        <v>1.194796092795</v>
+        <v>0.762124674616</v>
       </c>
       <c r="S4">
-        <v>0.0003760227536961612</v>
+        <v>0.0003322702661646897</v>
       </c>
       <c r="T4">
-        <v>0.0003760227536961612</v>
+        <v>0.0003322702661646898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2222903333333333</v>
+        <v>0.1843346666666667</v>
       </c>
       <c r="H5">
-        <v>0.666871</v>
+        <v>0.5530040000000001</v>
       </c>
       <c r="I5">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609467</v>
       </c>
       <c r="J5">
-        <v>0.2871991631283805</v>
+        <v>0.2416139168609468</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N5">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q5">
-        <v>20.05758761877944</v>
+        <v>11.60346566287289</v>
       </c>
       <c r="R5">
-        <v>180.518288569015</v>
+        <v>104.431190965856</v>
       </c>
       <c r="S5">
-        <v>0.05681219110906967</v>
+        <v>0.04552979423688645</v>
       </c>
       <c r="T5">
-        <v>0.05681219110906966</v>
+        <v>0.04552979423688645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1.090651</v>
       </c>
       <c r="I6">
-        <v>0.4697071164665</v>
+        <v>0.4765181807695937</v>
       </c>
       <c r="J6">
-        <v>0.4697071164664999</v>
+        <v>0.4765181807695938</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N6">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q6">
-        <v>83.46557627808356</v>
+        <v>76.80821239940589</v>
       </c>
       <c r="R6">
-        <v>751.190186502752</v>
+        <v>691.273911594653</v>
       </c>
       <c r="S6">
-        <v>0.2364123921911438</v>
+        <v>0.3013808294738545</v>
       </c>
       <c r="T6">
-        <v>0.2364123921911437</v>
+        <v>0.3013808294738545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.090651</v>
       </c>
       <c r="I7">
-        <v>0.4697071164665</v>
+        <v>0.4765181807695937</v>
       </c>
       <c r="J7">
-        <v>0.4697071164664999</v>
+        <v>0.4765181807695938</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N7">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q7">
-        <v>49.34407585758988</v>
+        <v>21.582803205618</v>
       </c>
       <c r="R7">
-        <v>444.096682718309</v>
+        <v>194.245228850562</v>
       </c>
       <c r="S7">
-        <v>0.1397648172354048</v>
+        <v>0.0846868183659282</v>
       </c>
       <c r="T7">
-        <v>0.1397648172354048</v>
+        <v>0.0846868183659282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>1.090651</v>
       </c>
       <c r="I8">
-        <v>0.4697071164665</v>
+        <v>0.4765181807695937</v>
       </c>
       <c r="J8">
-        <v>0.4697071164664999</v>
+        <v>0.4765181807695938</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N8">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q8">
-        <v>0.2171177123216667</v>
+        <v>0.1670094486948889</v>
       </c>
       <c r="R8">
-        <v>1.954059410895</v>
+        <v>1.503085038254</v>
       </c>
       <c r="S8">
-        <v>0.0006149758983993485</v>
+        <v>0.0006553133396192162</v>
       </c>
       <c r="T8">
-        <v>0.0006149758983993484</v>
+        <v>0.0006553133396192162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.090651</v>
       </c>
       <c r="I9">
-        <v>0.4697071164665</v>
+        <v>0.4765181807695937</v>
       </c>
       <c r="J9">
-        <v>0.4697071164664999</v>
+        <v>0.4765181807695938</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N9">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q9">
-        <v>32.80368766074611</v>
+        <v>22.88470142834045</v>
       </c>
       <c r="R9">
-        <v>295.233188946715</v>
+        <v>205.962312855064</v>
       </c>
       <c r="S9">
-        <v>0.09291493114155204</v>
+        <v>0.08979521959019184</v>
       </c>
       <c r="T9">
-        <v>0.09291493114155201</v>
+        <v>0.08979521959019184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.151299</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H10">
-        <v>0.453897</v>
+        <v>0.284918</v>
       </c>
       <c r="I10">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="J10">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N10">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q10">
-        <v>34.735928061216</v>
+        <v>20.06511914481711</v>
       </c>
       <c r="R10">
-        <v>312.623352550944</v>
+        <v>180.586072303354</v>
       </c>
       <c r="S10">
-        <v>0.09838791288724218</v>
+        <v>0.07873171451915568</v>
       </c>
       <c r="T10">
-        <v>0.09838791288724218</v>
+        <v>0.0787317145191557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.151299</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H11">
-        <v>0.453897</v>
+        <v>0.284918</v>
       </c>
       <c r="I11">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="J11">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N11">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q11">
-        <v>20.53555903724699</v>
+        <v>5.638218938724001</v>
       </c>
       <c r="R11">
-        <v>184.820031335223</v>
+        <v>50.743970448516</v>
       </c>
       <c r="S11">
-        <v>0.05816602308960293</v>
+        <v>0.0221232996762333</v>
       </c>
       <c r="T11">
-        <v>0.05816602308960293</v>
+        <v>0.0221232996762333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.151299</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H12">
-        <v>0.453897</v>
+        <v>0.284918</v>
       </c>
       <c r="I12">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="J12">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N12">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q12">
-        <v>0.09035803228499999</v>
+        <v>0.04362898681911111</v>
       </c>
       <c r="R12">
-        <v>0.813222290565</v>
+        <v>0.3926608813719999</v>
       </c>
       <c r="S12">
-        <v>0.0002559349556877214</v>
+        <v>0.0001711918533954746</v>
       </c>
       <c r="T12">
-        <v>0.0002559349556877214</v>
+        <v>0.0001711918533954747</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.151299</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H13">
-        <v>0.453897</v>
+        <v>0.284918</v>
       </c>
       <c r="I13">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="J13">
-        <v>0.1954783437073774</v>
+        <v>0.1244840072841918</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N13">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q13">
-        <v>13.651933953345</v>
+        <v>5.978322452883555</v>
       </c>
       <c r="R13">
-        <v>122.867405580105</v>
+        <v>53.80490207595199</v>
       </c>
       <c r="S13">
-        <v>0.0386684727748446</v>
+        <v>0.02345780123540736</v>
       </c>
       <c r="T13">
-        <v>0.03866847277484459</v>
+        <v>0.02345780123540736</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.036854</v>
+        <v>0.120073</v>
       </c>
       <c r="H14">
-        <v>0.110562</v>
+        <v>0.360219</v>
       </c>
       <c r="I14">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852676</v>
       </c>
       <c r="J14">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N14">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q14">
-        <v>8.461112715669334</v>
+        <v>25.36813101743966</v>
       </c>
       <c r="R14">
-        <v>76.150014441024</v>
+        <v>228.3131791569569</v>
       </c>
       <c r="S14">
-        <v>0.02396571121782975</v>
+        <v>0.09953972536791547</v>
       </c>
       <c r="T14">
-        <v>0.02396571121782975</v>
+        <v>0.09953972536791549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.036854</v>
+        <v>0.120073</v>
       </c>
       <c r="H15">
-        <v>0.110562</v>
+        <v>0.360219</v>
       </c>
       <c r="I15">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852676</v>
       </c>
       <c r="J15">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N15">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q15">
-        <v>5.002131492995332</v>
+        <v>7.128344253042</v>
       </c>
       <c r="R15">
-        <v>45.01918343695799</v>
+        <v>64.155098277378</v>
       </c>
       <c r="S15">
-        <v>0.0141683065647772</v>
+        <v>0.02797026823883743</v>
       </c>
       <c r="T15">
-        <v>0.0141683065647772</v>
+        <v>0.02797026823883743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.036854</v>
+        <v>0.120073</v>
       </c>
       <c r="H16">
-        <v>0.110562</v>
+        <v>0.360219</v>
       </c>
       <c r="I16">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852676</v>
       </c>
       <c r="J16">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N16">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q16">
-        <v>0.02200976161</v>
+        <v>0.05515969508066666</v>
       </c>
       <c r="R16">
-        <v>0.19808785449</v>
+        <v>0.4964372557259999</v>
       </c>
       <c r="S16">
-        <v>6.234163383046341E-05</v>
+        <v>0.0002164361614157915</v>
       </c>
       <c r="T16">
-        <v>6.234163383046341E-05</v>
+        <v>0.0002164361614157915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,25 +1461,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.036854</v>
+        <v>0.120073</v>
       </c>
       <c r="H17">
-        <v>0.110562</v>
+        <v>0.360219</v>
       </c>
       <c r="I17">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852676</v>
       </c>
       <c r="J17">
-        <v>0.04761537669774214</v>
+        <v>0.1573838950852677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N17">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q17">
-        <v>3.325391271036666</v>
+        <v>7.558333750957332</v>
       </c>
       <c r="R17">
-        <v>29.92852143932999</v>
+        <v>68.02500375861598</v>
       </c>
       <c r="S17">
-        <v>0.009419017281304719</v>
+        <v>0.02965746531709897</v>
       </c>
       <c r="T17">
-        <v>0.009419017281304719</v>
+        <v>0.02965746531709897</v>
       </c>
     </row>
   </sheetData>
